--- a/main.xlsx
+++ b/main.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\junks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3361910D-D0BD-4815-BB08-6D26C035FEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8390"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +20,9 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -26,7 +30,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>name</t>
+    <t>names</t>
   </si>
   <si>
     <t>x33.csv</t>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -346,21 +350,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
